--- a/Thống kê sản phẩm đã bán.xlsx
+++ b/Thống kê sản phẩm đã bán.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="58">
   <si>
     <t/>
   </si>
@@ -47,6 +47,75 @@
     <t>Đã bán</t>
   </si>
   <si>
+    <t>20012013</t>
+  </si>
+  <si>
+    <t>Giày Cao Gót  Mũi Nhọn</t>
+  </si>
+  <si>
+    <t>Size 35</t>
+  </si>
+  <si>
+    <t>7cm</t>
+  </si>
+  <si>
+    <t>Đen</t>
+  </si>
+  <si>
+    <t>Đế nhọn</t>
+  </si>
+  <si>
+    <t>Da Vải Tổng Hợp</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20012016</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>20012008</t>
+  </si>
+  <si>
+    <t>Giày Cao Gót BIGTREE</t>
+  </si>
+  <si>
+    <t>Size 37</t>
+  </si>
+  <si>
+    <t>5cm</t>
+  </si>
+  <si>
+    <t>Tím</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>20012011</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20012014</t>
+  </si>
+  <si>
+    <t>20012005</t>
+  </si>
+  <si>
+    <t>Size 38</t>
+  </si>
+  <si>
+    <t>Đế vuông</t>
+  </si>
+  <si>
+    <t>Da Trơn</t>
+  </si>
+  <si>
     <t>20012009</t>
   </si>
   <si>
@@ -62,82 +131,61 @@
     <t>Trắng</t>
   </si>
   <si>
-    <t>Đế vuông</t>
-  </si>
-  <si>
-    <t>Da Trơn</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20012012</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20012015</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>20012020</t>
+  </si>
+  <si>
+    <t>Giày Cao Gót Hở Eo</t>
+  </si>
+  <si>
+    <t>MULE HEELS</t>
+  </si>
+  <si>
+    <t>20012006</t>
+  </si>
+  <si>
+    <t>Giày Cao Gót Sandal Quai Ngang</t>
+  </si>
+  <si>
+    <t>20012019</t>
+  </si>
+  <si>
+    <t>Size 36</t>
+  </si>
+  <si>
+    <t>Đế xuồng</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20012004</t>
+  </si>
+  <si>
+    <t>20012017</t>
+  </si>
+  <si>
+    <t>Da Lì Trơn</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>20012008</t>
-  </si>
-  <si>
-    <t>Giày Cao Gót BIGTREE</t>
-  </si>
-  <si>
-    <t>Size 37</t>
-  </si>
-  <si>
-    <t>5cm</t>
-  </si>
-  <si>
-    <t>Tím</t>
-  </si>
-  <si>
-    <t>Đế nhọn</t>
-  </si>
-  <si>
-    <t>Da Vải Tổng Hợp</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>20012011</t>
-  </si>
-  <si>
-    <t>20012012</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>20012005</t>
-  </si>
-  <si>
-    <t>Size 38</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>20012004</t>
-  </si>
-  <si>
-    <t>Giày Cao Gót Sandal Quai Ngang</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>20012013</t>
-  </si>
-  <si>
-    <t>Giày Cao Gót  Mũi Nhọn</t>
-  </si>
-  <si>
-    <t>Size 35</t>
-  </si>
-  <si>
-    <t>7cm</t>
-  </si>
-  <si>
-    <t>Đen</t>
-  </si>
-  <si>
-    <t>20012006</t>
+    <t>20012018</t>
   </si>
 </sst>
 </file>
@@ -182,52 +230,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:I11"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" t="n">
+        <v>1.0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -248,33 +325,33 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -282,51 +359,51 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
@@ -335,128 +412,302 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F14" t="s">
         <v>15</v>
       </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" t="s">
-        <v>32</v>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
